--- a/biology/Zoologie/Ctenomys_brasiliensis/Ctenomys_brasiliensis.xlsx
+++ b/biology/Zoologie/Ctenomys_brasiliensis/Ctenomys_brasiliensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenomys brasiliensis est une espèce qui fait partie des rongeurs de la famille des Ctenomyidae. Comme les autres membres du genre Ctenomys, appelés localement des tuco-tucos, c'est un petit mammifère d'Amérique du Sud bâti pour creuser des terriers. Ce rongeur est endémique du Brésil où, d'après UICN, les populations sont peut-être en danger[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenomys brasiliensis est une espèce qui fait partie des rongeurs de la famille des Ctenomyidae. Comme les autres membres du genre Ctenomys, appelés localement des tuco-tucos, c'est un petit mammifère d'Amérique du Sud bâti pour creuser des terriers. Ce rongeur est endémique du Brésil où, d'après UICN, les populations sont peut-être en danger.
 L'espèce a été décrite pour la première fois en 1826 par le zoologiste français Henri-Marie Ducrotay de Blainville (1777-1850).
 Le Ctenomys brasiliensis fait l'objet d'une description par Charles Darwin lors de son passage en Uruguay en 1832. Le rongeur est alors désigné sous le nom de tucutuco : "Le tucutuco est un curieux petit animal qu'on peut décrire en un mot: un rongeur ayant les habitudes de la taupe." (Voyage d'un naturaliste autour du monde, Charles Darwin)
 </t>
